--- a/QRET_Mech_LoadCalculations.xlsx
+++ b/QRET_Mech_LoadCalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Graeme Barnes\Documents\GitHub\Repository Clone\MechComponents_02102012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530A8DC-2049-4069-B526-13C9F9FE5A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA5830-79BD-452F-BEF0-581A835D896A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{3A1712D8-85F2-43AC-AC19-420750E27783}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A1712D8-85F2-43AC-AC19-420750E27783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,14 +207,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C590FC8F-45C0-4513-8231-231683329BF2}">
   <dimension ref="J6:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
@@ -558,14 +558,14 @@
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O7">
         <f>SUM(K8:K13)</f>
         <v>21.153500000000001</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -576,13 +576,13 @@
       <c r="K8">
         <v>5.6059999999999999</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O8">
         <v>10.3</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
@@ -591,8 +591,8 @@
       <c r="K9">
         <v>10.657999999999999</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="P9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
@@ -601,14 +601,14 @@
       <c r="K10">
         <v>3.03</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O10">
         <f>O7*9.81*O8</f>
         <v>2137.4131005000004</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
@@ -617,13 +617,13 @@
       <c r="K11">
         <v>1.504</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="O11">
         <v>480.51</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
@@ -655,7 +655,7 @@
       <c r="O17">
         <v>2.1276999999999999</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -666,10 +666,10 @@
       <c r="O18">
         <v>2.2111000000000001</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="P19" s="3"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N20" t="s">
@@ -678,10 +678,10 @@
       <c r="O20">
         <v>10.3</v>
       </c>
-      <c r="P20" s="3"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="14:16" x14ac:dyDescent="0.3">
-      <c r="P21" s="3"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N22" t="s">
@@ -691,7 +691,7 @@
         <f>(SUM(O17:O18))*9.81*O20</f>
         <v>438.40536840000004</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N23" t="s">
@@ -700,7 +700,7 @@
       <c r="O23">
         <v>98.56</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="27" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N27" s="4" t="s">
